--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Contains null values</t>
   </si>
   <si>
     <t>Value type</t>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>a string consisting of 7 digits</t>
+  </si>
+  <si>
+    <t>Contains null values?</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:Y1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -591,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -622,19 +622,19 @@
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -659,19 +659,19 @@
     </row>
     <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -696,19 +696,19 @@
     </row>
     <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -733,19 +733,19 @@
     </row>
     <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -770,19 +770,19 @@
     </row>
     <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -807,19 +807,19 @@
     </row>
     <row r="8" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -871,13 +871,13 @@
     </row>
     <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -941,19 +941,19 @@
     </row>
     <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -978,19 +978,19 @@
     </row>
     <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1015,19 +1015,19 @@
     </row>
     <row r="14" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1052,19 +1052,19 @@
     </row>
     <row r="15" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1089,19 +1089,19 @@
     </row>
     <row r="16" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1126,19 +1126,19 @@
     </row>
     <row r="17" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1163,19 +1163,19 @@
     </row>
     <row r="18" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1200,19 +1200,19 @@
     </row>
     <row r="19" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
